--- a/2015-2016/clases/informatica_aplicada/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_aplicada/evaluacion.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="pruebas_parciales" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="informes escritos" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="investigacion_bibliografica" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="trabajo_autonomo" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="examen" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="practicas_laboratorio" sheetId="1" r:id="rId1"/>
+    <sheet name="pruebas_parciales" sheetId="2" r:id="rId2"/>
+    <sheet name="informes escritos" sheetId="3" r:id="rId3"/>
+    <sheet name="investigacion_bibliografica" sheetId="4" r:id="rId4"/>
+    <sheet name="trabajo_autonomo" sheetId="5" r:id="rId5"/>
+    <sheet name="examen" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -85,12 +84,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -99,22 +94,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -122,7 +102,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -130,7 +110,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -147,7 +127,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -155,87 +135,329 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col min="3" max="3" width="42.140625"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -249,185 +471,185 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="n">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>6</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="3">
         <v>7</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="3">
         <v>8</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="3">
         <v>9</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="3">
         <v>10</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="4" t="e">
-        <f aca="false">AVERAGE(D6:M6)*15/10</f>
+        <f t="shared" ref="N6:N17" si="0">AVERAGE(D6:M6)*15/10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="0" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="N7" s="4" t="e">
-        <f aca="false">AVERAGE(D7:M7)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="N8" s="4" t="e">
-        <f aca="false">AVERAGE(D8:M8)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="N9" s="4" t="e">
-        <f aca="false">AVERAGE(D9:M9)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="N10" s="4" t="e">
-        <f aca="false">AVERAGE(D10:M10)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="4" t="e">
-        <f aca="false">AVERAGE(D11:M11)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="N12" s="4" t="e">
-        <f aca="false">AVERAGE(D12:M12)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>8</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="N13" s="4" t="e">
-        <f aca="false">AVERAGE(D13:M13)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="4" t="e">
-        <f aca="false">AVERAGE(D14:M14)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="N15" s="4" t="e">
-        <f aca="false">AVERAGE(D15:M15)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>11</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="N16" s="4" t="e">
-        <f aca="false">AVERAGE(D16:M16)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>12</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="N17" s="4" t="e">
-        <f aca="false">AVERAGE(D17:M17)*15/10</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -435,184 +657,177 @@
   <mergeCells count="1">
     <mergeCell ref="D4:M4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
+    <col min="4" max="4" width="42.140625"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="n">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="0" t="n">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
         <v>75</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="0" t="s">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="E8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>95</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>7</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>60</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>40</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>9</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>40</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>10</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>80</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>11</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>100</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="n">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>12</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>65</v>
       </c>
     </row>
@@ -620,151 +835,141 @@
   <mergeCells count="1">
     <mergeCell ref="E5:G5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:I18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col min="5" max="5" width="42.140625"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="4:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="n">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
         <v>3</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="0" t="s">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="0" t="s">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="n">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="n">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="n">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="n">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13">
         <v>7</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="n">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14">
         <v>8</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="0" t="n">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15">
         <v>9</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0" t="n">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16">
         <v>10</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="0" t="n">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17">
         <v>11</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0" t="n">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18">
         <v>12</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -772,151 +977,143 @@
   <mergeCells count="1">
     <mergeCell ref="F5:H5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5748987854251"/>
+    <col min="1" max="3" width="10.5703125"/>
+    <col min="4" max="4" width="42.140625"/>
+    <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="n">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="0" t="s">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="0" t="s">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>7</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>9</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>10</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>11</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="n">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>12</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -924,151 +1121,143 @@
   <mergeCells count="1">
     <mergeCell ref="E5:G5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5748987854251"/>
+    <col min="1" max="3" width="10.5703125"/>
+    <col min="4" max="4" width="42.140625"/>
+    <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3" t="n">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="0" t="s">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" s="0" t="s">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>9</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>11</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1076,40 +1265,32 @@
   <mergeCells count="1">
     <mergeCell ref="E4:G4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5748987854251"/>
+    <col min="1" max="3" width="10.5703125"/>
+    <col min="4" max="4" width="42.140625"/>
+    <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="3:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1120,109 +1301,104 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="0" t="s">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" s="0" t="s">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14">
         <v>9</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>11</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/2015-2016/clases/informatica_aplicada/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_aplicada/evaluacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="53">
   <si>
     <t>var</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Matematicas</t>
   </si>
   <si>
-    <t>Estadistica</t>
+    <t>Estadística</t>
   </si>
   <si>
     <t>Financiera</t>
@@ -362,7 +362,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -431,10 +431,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -448,10 +444,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -478,8 +470,8 @@
   </sheetPr>
   <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B8:I20 B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,7 +612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="n">
         <v>2</v>
       </c>
@@ -1052,14 +1044,14 @@
   <dimension ref="A6:C18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="B8:I20 C7"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5748987854251"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.71255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
@@ -1078,7 +1070,7 @@
       <c r="B7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="4" t="n">
         <v>4.61538461538462</v>
       </c>
     </row>
@@ -1089,7 +1081,7 @@
       <c r="B8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="4" t="n">
         <v>3.07692307692308</v>
       </c>
     </row>
@@ -1100,7 +1092,7 @@
       <c r="B9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="4" t="n">
         <v>4.61538461538462</v>
       </c>
     </row>
@@ -1111,7 +1103,7 @@
       <c r="B10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1122,7 +1114,7 @@
       <c r="B11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1133,7 +1125,7 @@
       <c r="B12" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="4" t="n">
         <v>4.61538461538462</v>
       </c>
     </row>
@@ -1144,7 +1136,7 @@
       <c r="B13" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="4" t="n">
         <v>3.84615384615385</v>
       </c>
     </row>
@@ -1155,7 +1147,7 @@
       <c r="B14" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1166,7 +1158,7 @@
       <c r="B15" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="4" t="n">
         <v>4.61538461538462</v>
       </c>
     </row>
@@ -1177,7 +1169,7 @@
       <c r="B16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="4" t="n">
         <v>4.61538461538462</v>
       </c>
     </row>
@@ -1188,7 +1180,7 @@
       <c r="B17" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="4" t="n">
         <v>4.61538461538462</v>
       </c>
     </row>
@@ -1199,7 +1191,7 @@
       <c r="B18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1222,7 +1214,7 @@
   <dimension ref="C2:J18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="B8:I20"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1539,10 +1531,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C3:H17"/>
+  <dimension ref="C3:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="B8:I20 F6"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1555,19 +1547,8 @@
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G3" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="0" t="s">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -1602,11 +1583,11 @@
         <v>13</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F7" s="4" t="n">
         <f aca="false">E7*20/100</f>
-        <v>17.4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,11 +1628,11 @@
         <v>16</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F10" s="4" t="n">
         <f aca="false">E10*20/100</f>
-        <v>17.4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,11 +1643,11 @@
         <v>17</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F11" s="4" t="n">
         <f aca="false">E11*20/100</f>
-        <v>17.4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,7 +1759,7 @@
   <dimension ref="B3:H17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="1" sqref="B8:I20 H6"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2140,7 +2121,7 @@
   <dimension ref="C4:H17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="1" sqref="B8:I20 G5"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2420,7 +2401,7 @@
   <dimension ref="D4:M17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="B8:I20"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2886,8 +2867,8 @@
   </sheetPr>
   <dimension ref="A7:I20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:I20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2945,7 +2926,7 @@
         <f aca="false">practicas_laboratorio!M7</f>
         <v>17</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="16" t="n">
         <f aca="false">pruebas_parciales!H7</f>
         <v>7.3</v>
       </c>
@@ -2965,12 +2946,12 @@
         <f aca="false">examen!G6</f>
         <v>12.35</v>
       </c>
-      <c r="I9" s="18" t="n">
+      <c r="I9" s="17" t="n">
         <f aca="false">SUM(C9:H9)</f>
         <v>75.6653846153846</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="n">
         <v>2</v>
       </c>
@@ -2981,7 +2962,7 @@
         <f aca="false">practicas_laboratorio!M8</f>
         <v>3.1875</v>
       </c>
-      <c r="D10" s="17" t="n">
+      <c r="D10" s="16" t="n">
         <f aca="false">pruebas_parciales!H8</f>
         <v>7.4</v>
       </c>
@@ -2991,19 +2972,18 @@
       </c>
       <c r="F10" s="16" t="n">
         <f aca="false">trabajo_autonomo!F7</f>
-        <v>17.4</v>
+        <v>18</v>
       </c>
       <c r="G10" s="16" t="n">
-        <f aca="false">proyecto!M7</f>
         <v>0</v>
       </c>
       <c r="H10" s="16" t="n">
         <f aca="false">examen!G7</f>
         <v>7.9</v>
       </c>
-      <c r="I10" s="18" t="n">
+      <c r="I10" s="17" t="n">
         <f aca="false">SUM(C10:H10)</f>
-        <v>38.9644230769231</v>
+        <v>39.5644230769231</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,7 +2997,7 @@
         <f aca="false">practicas_laboratorio!M9</f>
         <v>17</v>
       </c>
-      <c r="D11" s="17" t="n">
+      <c r="D11" s="16" t="n">
         <f aca="false">pruebas_parciales!H9</f>
         <v>5.5</v>
       </c>
@@ -3037,7 +3017,7 @@
         <f aca="false">examen!G8</f>
         <v>17.7</v>
       </c>
-      <c r="I11" s="18" t="n">
+      <c r="I11" s="17" t="n">
         <f aca="false">SUM(C11:H11)</f>
         <v>77.2153846153846</v>
       </c>
@@ -3053,7 +3033,7 @@
         <f aca="false">practicas_laboratorio!M10</f>
         <v>17</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="16" t="n">
         <f aca="false">pruebas_parciales!H10</f>
         <v>8.5</v>
       </c>
@@ -3073,7 +3053,7 @@
         <f aca="false">examen!G9</f>
         <v>12.5</v>
       </c>
-      <c r="I12" s="18" t="n">
+      <c r="I12" s="17" t="n">
         <f aca="false">SUM(C12:H12)</f>
         <v>75.4</v>
       </c>
@@ -3089,7 +3069,7 @@
         <f aca="false">practicas_laboratorio!M11</f>
         <v>17</v>
       </c>
-      <c r="D13" s="17" t="n">
+      <c r="D13" s="16" t="n">
         <f aca="false">pruebas_parciales!H11</f>
         <v>9.5</v>
       </c>
@@ -3099,7 +3079,7 @@
       </c>
       <c r="F13" s="16" t="n">
         <f aca="false">trabajo_autonomo!F10</f>
-        <v>17.4</v>
+        <v>18</v>
       </c>
       <c r="G13" s="16" t="n">
         <f aca="false">proyecto!M10</f>
@@ -3109,9 +3089,9 @@
         <f aca="false">examen!G10</f>
         <v>17.55</v>
       </c>
-      <c r="I13" s="18" t="n">
+      <c r="I13" s="17" t="n">
         <f aca="false">SUM(C13:H13)</f>
-        <v>83.45</v>
+        <v>84.05</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3125,7 +3105,7 @@
         <f aca="false">practicas_laboratorio!M12</f>
         <v>17</v>
       </c>
-      <c r="D14" s="17" t="n">
+      <c r="D14" s="16" t="n">
         <f aca="false">pruebas_parciales!H12</f>
         <v>5.5</v>
       </c>
@@ -3135,7 +3115,7 @@
       </c>
       <c r="F14" s="16" t="n">
         <f aca="false">trabajo_autonomo!F11</f>
-        <v>17.4</v>
+        <v>18</v>
       </c>
       <c r="G14" s="16" t="n">
         <f aca="false">proyecto!M11</f>
@@ -3145,9 +3125,9 @@
         <f aca="false">examen!G11</f>
         <v>20.75</v>
       </c>
-      <c r="I14" s="18" t="n">
+      <c r="I14" s="17" t="n">
         <f aca="false">SUM(C14:H14)</f>
-        <v>82.2653846153846</v>
+        <v>82.8653846153846</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,7 +3141,7 @@
         <f aca="false">practicas_laboratorio!M13</f>
         <v>8.5</v>
       </c>
-      <c r="D15" s="17" t="n">
+      <c r="D15" s="16" t="n">
         <f aca="false">pruebas_parciales!H13</f>
         <v>5.3</v>
       </c>
@@ -3181,7 +3161,7 @@
         <f aca="false">examen!G12</f>
         <v>15.8</v>
       </c>
-      <c r="I15" s="18" t="n">
+      <c r="I15" s="17" t="n">
         <f aca="false">SUM(C15:H15)</f>
         <v>67.8461538461538</v>
       </c>
@@ -3197,7 +3177,7 @@
         <f aca="false">practicas_laboratorio!M14</f>
         <v>17</v>
       </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="16" t="n">
         <f aca="false">pruebas_parciales!H14</f>
         <v>6.8</v>
       </c>
@@ -3217,7 +3197,7 @@
         <f aca="false">examen!G13</f>
         <v>19.8</v>
       </c>
-      <c r="I16" s="18" t="n">
+      <c r="I16" s="17" t="n">
         <f aca="false">SUM(C16:H16)</f>
         <v>85</v>
       </c>
@@ -3233,7 +3213,7 @@
         <f aca="false">practicas_laboratorio!M15</f>
         <v>17</v>
       </c>
-      <c r="D17" s="17" t="n">
+      <c r="D17" s="16" t="n">
         <f aca="false">pruebas_parciales!H15</f>
         <v>6.5</v>
       </c>
@@ -3253,7 +3233,7 @@
         <f aca="false">examen!G14</f>
         <v>21.4</v>
       </c>
-      <c r="I17" s="18" t="n">
+      <c r="I17" s="17" t="n">
         <f aca="false">SUM(C17:H17)</f>
         <v>85.9153846153846</v>
       </c>
@@ -3269,7 +3249,7 @@
         <f aca="false">practicas_laboratorio!M16</f>
         <v>17</v>
       </c>
-      <c r="D18" s="17" t="n">
+      <c r="D18" s="16" t="n">
         <f aca="false">pruebas_parciales!H16</f>
         <v>8</v>
       </c>
@@ -3289,7 +3269,7 @@
         <f aca="false">examen!G15</f>
         <v>18</v>
       </c>
-      <c r="I18" s="18" t="n">
+      <c r="I18" s="17" t="n">
         <f aca="false">SUM(C18:H18)</f>
         <v>82.0153846153846</v>
       </c>
@@ -3305,7 +3285,7 @@
         <f aca="false">practicas_laboratorio!M17</f>
         <v>17</v>
       </c>
-      <c r="D19" s="17" t="n">
+      <c r="D19" s="16" t="n">
         <f aca="false">pruebas_parciales!H17</f>
         <v>9.8</v>
       </c>
@@ -3325,43 +3305,43 @@
         <f aca="false">examen!G16</f>
         <v>17.4</v>
       </c>
-      <c r="I19" s="18" t="n">
+      <c r="I19" s="17" t="n">
         <f aca="false">SUM(C19:H19)</f>
         <v>85.2153846153846</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="n">
+      <c r="A20" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="21" t="n">
+      <c r="C20" s="20" t="n">
         <f aca="false">practicas_laboratorio!M18</f>
         <v>17</v>
       </c>
-      <c r="D20" s="22" t="n">
+      <c r="D20" s="20" t="n">
         <f aca="false">pruebas_parciales!H18</f>
         <v>5.3</v>
       </c>
-      <c r="E20" s="21" t="n">
+      <c r="E20" s="20" t="n">
         <f aca="false">participacion_clase!C18</f>
         <v>5</v>
       </c>
-      <c r="F20" s="21" t="n">
+      <c r="F20" s="20" t="n">
         <f aca="false">trabajo_autonomo!F17</f>
         <v>18.4</v>
       </c>
-      <c r="G20" s="21" t="n">
+      <c r="G20" s="20" t="n">
         <f aca="false">proyecto!M17</f>
         <v>14</v>
       </c>
-      <c r="H20" s="21" t="n">
+      <c r="H20" s="20" t="n">
         <f aca="false">examen!G17</f>
         <v>12.5</v>
       </c>
-      <c r="I20" s="23" t="n">
+      <c r="I20" s="21" t="n">
         <f aca="false">SUM(C20:H20)</f>
         <v>72.2</v>
       </c>

--- a/2015-2016/clases/informatica_aplicada/evaluacion.xlsx
+++ b/2015-2016/clases/informatica_aplicada/evaluacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="practicas_laboratorio" sheetId="1" state="visible" r:id="rId2"/>
@@ -173,7 +173,7 @@
 Parciales</t>
   </si>
   <si>
-    <t>Participacion clase</t>
+    <t>Participación clase</t>
   </si>
   <si>
     <t>Trabajo
@@ -470,8 +470,8 @@
   </sheetPr>
   <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,18 +620,36 @@
         <v>13</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="L8" s="4" t="n">
         <f aca="false">SUM(D8:K8)/8</f>
-        <v>1.875</v>
+        <v>10</v>
       </c>
       <c r="M8" s="4" t="n">
         <f aca="false">17*L8/10</f>
-        <v>3.1875</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,7 +1062,7 @@
   <dimension ref="A6:C18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1082,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>3.07692307692308</v>
+        <v>4.07692307692308</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,7 +1147,7 @@
         <v>4.61538461538462</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>7</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>3.84615384615385</v>
+        <v>4.07692307692308</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,8 +2885,8 @@
   </sheetPr>
   <dimension ref="A7:I20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2885,7 +2903,30 @@
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">SUM(C7:H7)</f>
+        <v>100</v>
+      </c>
+    </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
         <v>45</v>
@@ -2947,8 +2988,8 @@
         <v>12.35</v>
       </c>
       <c r="I9" s="17" t="n">
-        <f aca="false">SUM(C9:H9)</f>
-        <v>75.6653846153846</v>
+        <f aca="false">SUM(C9:H9)+1</f>
+        <v>76.6653846153846</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,7 +3001,7 @@
       </c>
       <c r="C10" s="16" t="n">
         <f aca="false">practicas_laboratorio!M8</f>
-        <v>3.1875</v>
+        <v>17</v>
       </c>
       <c r="D10" s="16" t="n">
         <f aca="false">pruebas_parciales!H8</f>
@@ -2968,7 +3009,7 @@
       </c>
       <c r="E10" s="16" t="n">
         <f aca="false">participacion_clase!C8</f>
-        <v>3.07692307692308</v>
+        <v>4.07692307692308</v>
       </c>
       <c r="F10" s="16" t="n">
         <f aca="false">trabajo_autonomo!F7</f>
@@ -2982,8 +3023,8 @@
         <v>7.9</v>
       </c>
       <c r="I10" s="17" t="n">
-        <f aca="false">SUM(C10:H10)</f>
-        <v>39.5644230769231</v>
+        <f aca="false">SUM(C10:H10)+1</f>
+        <v>55.3769230769231</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,8 +3059,8 @@
         <v>17.7</v>
       </c>
       <c r="I11" s="17" t="n">
-        <f aca="false">SUM(C11:H11)</f>
-        <v>77.2153846153846</v>
+        <f aca="false">SUM(C11:H11)+1</f>
+        <v>78.2153846153846</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,8 +3095,8 @@
         <v>12.5</v>
       </c>
       <c r="I12" s="17" t="n">
-        <f aca="false">SUM(C12:H12)</f>
-        <v>75.4</v>
+        <f aca="false">SUM(C12:H12)+1</f>
+        <v>76.4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3090,8 +3131,8 @@
         <v>17.55</v>
       </c>
       <c r="I13" s="17" t="n">
-        <f aca="false">SUM(C13:H13)</f>
-        <v>84.05</v>
+        <f aca="false">SUM(C13:H13)+1</f>
+        <v>85.05</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,8 +3167,8 @@
         <v>20.75</v>
       </c>
       <c r="I14" s="17" t="n">
-        <f aca="false">SUM(C14:H14)</f>
-        <v>82.8653846153846</v>
+        <f aca="false">SUM(C14:H14)+1</f>
+        <v>83.8653846153846</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3147,7 +3188,7 @@
       </c>
       <c r="E15" s="16" t="n">
         <f aca="false">participacion_clase!C13</f>
-        <v>3.84615384615385</v>
+        <v>4.07692307692308</v>
       </c>
       <c r="F15" s="16" t="n">
         <f aca="false">trabajo_autonomo!F12</f>
@@ -3163,7 +3204,7 @@
       </c>
       <c r="I15" s="17" t="n">
         <f aca="false">SUM(C15:H15)</f>
-        <v>67.8461538461538</v>
+        <v>68.0769230769231</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,8 +3239,8 @@
         <v>19.8</v>
       </c>
       <c r="I16" s="17" t="n">
-        <f aca="false">SUM(C16:H16)</f>
-        <v>85</v>
+        <f aca="false">SUM(C16:H16)+1</f>
+        <v>86</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,8 +3275,8 @@
         <v>21.4</v>
       </c>
       <c r="I17" s="17" t="n">
-        <f aca="false">SUM(C17:H17)</f>
-        <v>85.9153846153846</v>
+        <f aca="false">SUM(C17:H17)+1</f>
+        <v>86.9153846153846</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3270,8 +3311,8 @@
         <v>18</v>
       </c>
       <c r="I18" s="17" t="n">
-        <f aca="false">SUM(C18:H18)</f>
-        <v>82.0153846153846</v>
+        <f aca="false">SUM(C18:H18)+1</f>
+        <v>83.0153846153846</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,8 +3347,8 @@
         <v>17.4</v>
       </c>
       <c r="I19" s="17" t="n">
-        <f aca="false">SUM(C19:H19)</f>
-        <v>85.2153846153846</v>
+        <f aca="false">SUM(C19:H19)+1</f>
+        <v>86.2153846153846</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,8 +3383,8 @@
         <v>12.5</v>
       </c>
       <c r="I20" s="21" t="n">
-        <f aca="false">SUM(C20:H20)</f>
-        <v>72.2</v>
+        <f aca="false">SUM(C20:H20)+1</f>
+        <v>73.2</v>
       </c>
     </row>
   </sheetData>
